--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_5_15.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_5_15.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-290827.5232378175</v>
+        <v>-259073.4290753405</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17410625.23004074</v>
+        <v>16631928.64792684</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.9342484446</v>
+        <v>492028.9342484447</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8956879.313671399</v>
+        <v>9002416.324749602</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>316.0659616274502</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
         <v>33.76104808841092</v>
@@ -665,19 +665,19 @@
         <v>31.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>424.2958575201043</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F2" t="n">
-        <v>423.5887552948843</v>
+        <v>321.0895193791843</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -713,10 +713,10 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
         <v>0.8069000430770075</v>
@@ -725,7 +725,7 @@
         <v>14.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="3">
@@ -814,19 +814,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>5.08148512872441</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
         <v>163.9353622244306</v>
@@ -874,13 +874,13 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>74.8417401610386</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,16 +893,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
         <v>33.76104808841092</v>
       </c>
       <c r="D5" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
         <v>423.5887552948843</v>
@@ -914,7 +914,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -956,10 +956,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>3.456294006069004</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X5" t="n">
-        <v>414.9510387864824</v>
+        <v>161.0734612100933</v>
       </c>
       <c r="Y5" t="n">
         <v>4.203262463343094</v>
@@ -1060,13 +1060,13 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>119.8634463900538</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>138.5031525665292</v>
@@ -1099,25 +1099,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>163.293878347428</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
         <v>225.1454739790328</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>248.995807838186</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C8" t="n">
         <v>433.7610480884109</v>
@@ -1145,10 +1145,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
         <v>0.4126214791313976</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1193,7 +1193,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0.8069000430770075</v>
+        <v>64.11396738868682</v>
       </c>
       <c r="X8" t="n">
         <v>14.9510387864824</v>
@@ -1294,7 +1294,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>164.2192128704925</v>
+        <v>20.0847269464058</v>
       </c>
       <c r="E10" t="n">
         <v>168.0604237117701</v>
@@ -1336,25 +1336,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>261.4557957275886</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>225.1454739790328</v>
@@ -1382,13 +1382,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>242.5231039352133</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>86.71505822463868</v>
       </c>
       <c r="X11" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
         <v>170.8360944016073</v>
@@ -1543,10 +1543,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>48.28314334362916</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,13 +1576,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>69.45405731752604</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U13" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>284.0859530482738</v>
@@ -1610,7 +1610,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869772995</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
         <v>429.4369973932878</v>
@@ -1625,7 +1625,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791308126</v>
+        <v>0.4126214791325486</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1771,7 +1771,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
-        <v>168.0604237117701</v>
+        <v>45.6123957067734</v>
       </c>
       <c r="F16" t="n">
         <v>174.9399834978613</v>
@@ -1813,16 +1813,16 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V16" t="n">
-        <v>75.86622810093047</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
         <v>269.3061403695714</v>
@@ -1847,7 +1847,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
-        <v>431.5506869772995</v>
+        <v>431.5506869773011</v>
       </c>
       <c r="E17" t="n">
         <v>429.4369973932878</v>
@@ -2017,10 +2017,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,16 +2047,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>67.4289457920829</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U19" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>284.0859530482738</v>
@@ -2065,7 +2065,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X19" t="n">
-        <v>82.14201637551372</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y19" t="n">
         <v>225.1454739790328</v>
@@ -2084,7 +2084,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D20" t="n">
-        <v>431.5506869772999</v>
+        <v>431.550686977301</v>
       </c>
       <c r="E20" t="n">
         <v>429.4369973932878</v>
@@ -2239,7 +2239,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C22" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>164.2192128704925</v>
@@ -2251,10 +2251,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>138.5031525665256</v>
       </c>
       <c r="I22" t="n">
         <v>87.77334973307141</v>
@@ -2284,19 +2284,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>105.3480885970168</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U22" t="n">
-        <v>193.8659438253727</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W22" t="n">
         <v>269.3061403695714</v>
@@ -2476,22 +2476,22 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C25" t="n">
-        <v>170.8360944016073</v>
+        <v>130.6767931660344</v>
       </c>
       <c r="D25" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>94.2187898436169</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
         <v>87.77334973307141</v>
@@ -2728,10 +2728,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>41.94061297377409</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2767,13 +2767,13 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U28" t="n">
-        <v>136.0564930766995</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V28" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W28" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>242.9378371199217</v>
@@ -2965,7 +2965,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>18.0567773522574</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2998,7 +2998,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>18.05677735225813</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3199,13 +3199,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>163.9353622244306</v>
+        <v>94.21878984361656</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>18.05677735225813</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3472,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>18.05677735225813</v>
+        <v>18.05677735225785</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>405.8008644413113</v>
+        <v>421.6239533009272</v>
       </c>
       <c r="C38" t="n">
-        <v>417.5253377496635</v>
+        <v>433.3484266092794</v>
       </c>
       <c r="D38" t="n">
-        <v>415.3149766385525</v>
+        <v>431.1380654981684</v>
       </c>
       <c r="E38" t="n">
-        <v>413.2012870545404</v>
+        <v>429.0243759141563</v>
       </c>
       <c r="F38" t="n">
-        <v>407.353044956137</v>
+        <v>423.1761338157528</v>
       </c>
       <c r="G38" t="n">
-        <v>381.1481427242214</v>
+        <v>396.9712315838373</v>
       </c>
       <c r="H38" t="n">
-        <v>270.0031426724685</v>
+        <v>285.8262315320844</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>66.57964473925399</v>
+        <v>82.4027335988699</v>
       </c>
       <c r="T38" t="n">
-        <v>201.6308445169444</v>
+        <v>217.4539333765603</v>
       </c>
       <c r="U38" t="n">
-        <v>240.3943693174059</v>
+        <v>256.2174581770218</v>
       </c>
       <c r="V38" t="n">
-        <v>342.7550702267644</v>
+        <v>358.5781590863803</v>
       </c>
       <c r="W38" t="n">
-        <v>384.5711897043296</v>
+        <v>400.3942785639455</v>
       </c>
       <c r="X38" t="n">
-        <v>398.715328447735</v>
+        <v>414.5384173073509</v>
       </c>
       <c r="Y38" t="n">
-        <v>387.9675521245957</v>
+        <v>403.7906409842116</v>
       </c>
     </row>
     <row r="39">
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>173.6647221930499</v>
+        <v>189.4878110526658</v>
       </c>
       <c r="C40" t="n">
-        <v>154.6003840628599</v>
+        <v>170.4234729224759</v>
       </c>
       <c r="D40" t="n">
-        <v>147.9835025317452</v>
+        <v>163.8065913913611</v>
       </c>
       <c r="E40" t="n">
-        <v>151.8247133730227</v>
+        <v>167.6478022326387</v>
       </c>
       <c r="F40" t="n">
-        <v>158.704273159114</v>
+        <v>174.5273620187299</v>
       </c>
       <c r="G40" t="n">
-        <v>147.6996518856832</v>
+        <v>163.5227407452992</v>
       </c>
       <c r="H40" t="n">
-        <v>122.2674422277819</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>71.53763939432405</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>4.967932742934465</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>141.4132446762359</v>
+        <v>157.2363335358519</v>
       </c>
       <c r="T40" t="n">
-        <v>227.1849416185819</v>
+        <v>112.0152145377553</v>
       </c>
       <c r="U40" t="n">
-        <v>259.4129604006783</v>
+        <v>275.2360492602942</v>
       </c>
       <c r="V40" t="n">
-        <v>267.8502427095265</v>
+        <v>283.6733315691424</v>
       </c>
       <c r="W40" t="n">
-        <v>253.070430030824</v>
+        <v>268.8935188904399</v>
       </c>
       <c r="X40" t="n">
-        <v>226.7021267811743</v>
+        <v>242.5252156407902</v>
       </c>
       <c r="Y40" t="n">
-        <v>208.9097636402854</v>
+        <v>224.7328524999014</v>
       </c>
     </row>
     <row r="41">
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>405.8008644413113</v>
+        <v>421.6239533009273</v>
       </c>
       <c r="C41" t="n">
-        <v>417.5253377496635</v>
+        <v>433.3484266092795</v>
       </c>
       <c r="D41" t="n">
-        <v>415.3149766385525</v>
+        <v>431.1380654981685</v>
       </c>
       <c r="E41" t="n">
-        <v>413.2012870545404</v>
+        <v>429.0243759141563</v>
       </c>
       <c r="F41" t="n">
-        <v>407.353044956137</v>
+        <v>423.1761338157529</v>
       </c>
       <c r="G41" t="n">
-        <v>381.1481427242214</v>
+        <v>396.9712315838373</v>
       </c>
       <c r="H41" t="n">
-        <v>270.0031426724685</v>
+        <v>285.8262315320845</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>66.57964473925399</v>
+        <v>82.40273359886993</v>
       </c>
       <c r="T41" t="n">
-        <v>201.6308445169444</v>
+        <v>217.4539333765603</v>
       </c>
       <c r="U41" t="n">
-        <v>240.3943693174059</v>
+        <v>256.2174581770219</v>
       </c>
       <c r="V41" t="n">
-        <v>342.7550702267644</v>
+        <v>358.5781590863803</v>
       </c>
       <c r="W41" t="n">
-        <v>384.5711897043296</v>
+        <v>400.3942785639456</v>
       </c>
       <c r="X41" t="n">
-        <v>398.715328447735</v>
+        <v>414.538417307351</v>
       </c>
       <c r="Y41" t="n">
-        <v>387.9675521245957</v>
+        <v>403.7906409842117</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>173.6647221930499</v>
+        <v>189.4878110526658</v>
       </c>
       <c r="C43" t="n">
-        <v>154.6003840628599</v>
+        <v>170.4234729224759</v>
       </c>
       <c r="D43" t="n">
-        <v>147.9835025317452</v>
+        <v>163.8065913913611</v>
       </c>
       <c r="E43" t="n">
-        <v>151.8247133730227</v>
+        <v>167.6478022326387</v>
       </c>
       <c r="F43" t="n">
-        <v>158.704273159114</v>
+        <v>174.5273620187299</v>
       </c>
       <c r="G43" t="n">
-        <v>147.6996518856832</v>
+        <v>163.5227407452992</v>
       </c>
       <c r="H43" t="n">
-        <v>122.2674422277819</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>71.53763939432405</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>4.967932742934465</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>141.4132446762359</v>
+        <v>157.2363335358519</v>
       </c>
       <c r="T43" t="n">
-        <v>227.1849416185819</v>
+        <v>243.0080304781978</v>
       </c>
       <c r="U43" t="n">
-        <v>259.4129604006783</v>
+        <v>144.2432333198508</v>
       </c>
       <c r="V43" t="n">
-        <v>267.8502427095265</v>
+        <v>283.6733315691424</v>
       </c>
       <c r="W43" t="n">
-        <v>253.070430030824</v>
+        <v>268.89351889044</v>
       </c>
       <c r="X43" t="n">
-        <v>226.7021267811743</v>
+        <v>242.5252156407902</v>
       </c>
       <c r="Y43" t="n">
-        <v>208.9097636402854</v>
+        <v>224.7328524999014</v>
       </c>
     </row>
     <row r="44">
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>405.8008644413113</v>
+        <v>421.6239533009273</v>
       </c>
       <c r="C44" t="n">
-        <v>417.5253377496635</v>
+        <v>433.3484266092795</v>
       </c>
       <c r="D44" t="n">
-        <v>415.3149766385525</v>
+        <v>431.1380654981685</v>
       </c>
       <c r="E44" t="n">
-        <v>413.2012870545404</v>
+        <v>429.0243759141563</v>
       </c>
       <c r="F44" t="n">
-        <v>407.353044956137</v>
+        <v>423.1761338157529</v>
       </c>
       <c r="G44" t="n">
-        <v>381.1481427242214</v>
+        <v>396.9712315838373</v>
       </c>
       <c r="H44" t="n">
-        <v>270.0031426724685</v>
+        <v>285.8262315320845</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>66.57964473925399</v>
+        <v>82.40273359886991</v>
       </c>
       <c r="T44" t="n">
-        <v>201.6308445169444</v>
+        <v>217.4539333765603</v>
       </c>
       <c r="U44" t="n">
-        <v>240.3943693174059</v>
+        <v>256.2174581770219</v>
       </c>
       <c r="V44" t="n">
-        <v>342.7550702267644</v>
+        <v>358.5781590863803</v>
       </c>
       <c r="W44" t="n">
-        <v>384.5711897043296</v>
+        <v>400.3942785639456</v>
       </c>
       <c r="X44" t="n">
-        <v>398.715328447735</v>
+        <v>414.538417307351</v>
       </c>
       <c r="Y44" t="n">
-        <v>387.9675521245957</v>
+        <v>403.7906409842117</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>173.6647221930499</v>
+        <v>189.4878110526658</v>
       </c>
       <c r="C46" t="n">
-        <v>154.6003840628599</v>
+        <v>170.4234729224759</v>
       </c>
       <c r="D46" t="n">
-        <v>147.9835025317452</v>
+        <v>37.45496350626877</v>
       </c>
       <c r="E46" t="n">
-        <v>151.8247133730227</v>
+        <v>167.6478022326387</v>
       </c>
       <c r="F46" t="n">
-        <v>158.704273159114</v>
+        <v>174.5273620187299</v>
       </c>
       <c r="G46" t="n">
-        <v>147.6996518856832</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>122.2674422277819</v>
+        <v>138.0905310873978</v>
       </c>
       <c r="I46" t="n">
-        <v>71.53763939432405</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>4.967932742934469</v>
+        <v>20.79102160255039</v>
       </c>
       <c r="S46" t="n">
-        <v>141.4132446762359</v>
+        <v>157.2363335358519</v>
       </c>
       <c r="T46" t="n">
-        <v>227.1849416185819</v>
+        <v>243.0080304781978</v>
       </c>
       <c r="U46" t="n">
-        <v>259.4129604006783</v>
+        <v>275.2360492602943</v>
       </c>
       <c r="V46" t="n">
-        <v>267.8502427095265</v>
+        <v>283.6733315691424</v>
       </c>
       <c r="W46" t="n">
-        <v>253.070430030824</v>
+        <v>268.89351889044</v>
       </c>
       <c r="X46" t="n">
-        <v>226.7021267811743</v>
+        <v>242.5252156407902</v>
       </c>
       <c r="Y46" t="n">
-        <v>208.9097636402854</v>
+        <v>224.7328524999014</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1357.762053393192</v>
+        <v>871.3700742560367</v>
       </c>
       <c r="C2" t="n">
-        <v>1323.65998461702</v>
+        <v>837.2680054798641</v>
       </c>
       <c r="D2" t="n">
-        <v>1291.790603831868</v>
+        <v>805.3986246947127</v>
       </c>
       <c r="E2" t="n">
-        <v>863.2089295691367</v>
+        <v>371.6238798530078</v>
       </c>
       <c r="F2" t="n">
-        <v>435.3414999783445</v>
+        <v>47.2910319952459</v>
       </c>
       <c r="G2" t="n">
-        <v>33.94366860160834</v>
+        <v>47.2910319952459</v>
       </c>
       <c r="H2" t="n">
-        <v>33.94366860160834</v>
+        <v>47.2910319952459</v>
       </c>
       <c r="I2" t="n">
-        <v>33.94366860160834</v>
+        <v>46.87424262238591</v>
       </c>
       <c r="J2" t="n">
-        <v>453.9965675465116</v>
+        <v>482.1289300753037</v>
       </c>
       <c r="K2" t="n">
-        <v>453.9965675465116</v>
+        <v>1062.197682527329</v>
       </c>
       <c r="L2" t="n">
-        <v>453.9965675465116</v>
+        <v>1062.197682527329</v>
       </c>
       <c r="M2" t="n">
-        <v>453.9965675465116</v>
+        <v>1062.197682527329</v>
       </c>
       <c r="N2" t="n">
-        <v>453.9965675465116</v>
+        <v>1062.197682527329</v>
       </c>
       <c r="O2" t="n">
-        <v>874.0494664914149</v>
+        <v>1062.197682527329</v>
       </c>
       <c r="P2" t="n">
-        <v>1107.976466382457</v>
+        <v>1628.059280407644</v>
       </c>
       <c r="Q2" t="n">
-        <v>1528.02936532736</v>
+        <v>2174.558066366239</v>
       </c>
       <c r="R2" t="n">
-        <v>1697.183430080417</v>
+        <v>2343.712131119295</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080417</v>
+        <v>2343.712131119295</v>
       </c>
       <c r="T2" t="n">
-        <v>1697.183430080417</v>
+        <v>2343.712131119295</v>
       </c>
       <c r="U2" t="n">
-        <v>1697.183430080417</v>
+        <v>2084.489828436313</v>
       </c>
       <c r="V2" t="n">
-        <v>1697.183430080417</v>
+        <v>1721.872878370139</v>
       </c>
       <c r="W2" t="n">
-        <v>1696.368379531855</v>
+        <v>1721.057827821576</v>
       </c>
       <c r="X2" t="n">
-        <v>1681.26632015157</v>
+        <v>1705.955768441291</v>
       </c>
       <c r="Y2" t="n">
-        <v>1677.020600491627</v>
+        <v>1297.669644740944</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>540.1154135929012</v>
+        <v>553.0459876136787</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295434</v>
+        <v>446.589526450321</v>
       </c>
       <c r="D3" t="n">
-        <v>338.5686635760967</v>
+        <v>351.4992375968743</v>
       </c>
       <c r="E3" t="n">
-        <v>244.4482489030504</v>
+        <v>257.378822923828</v>
       </c>
       <c r="F3" t="n">
-        <v>161.064410519212</v>
+        <v>173.9949845399896</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539587</v>
+        <v>88.60989480617343</v>
       </c>
       <c r="H3" t="n">
-        <v>33.94366860160834</v>
+        <v>46.87424262238591</v>
       </c>
       <c r="I3" t="n">
-        <v>60.00734176206595</v>
+        <v>72.9379157828435</v>
       </c>
       <c r="J3" t="n">
-        <v>384.5656667282782</v>
+        <v>397.4962407490559</v>
       </c>
       <c r="K3" t="n">
-        <v>384.5656667282782</v>
+        <v>977.5649932010814</v>
       </c>
       <c r="L3" t="n">
-        <v>384.5656667282782</v>
+        <v>1052.20228737478</v>
       </c>
       <c r="M3" t="n">
-        <v>384.5656667282782</v>
+        <v>1052.20228737478</v>
       </c>
       <c r="N3" t="n">
-        <v>384.5656667282782</v>
+        <v>1052.20228737478</v>
       </c>
       <c r="O3" t="n">
-        <v>739.9048540962709</v>
+        <v>1052.20228737478</v>
       </c>
       <c r="P3" t="n">
-        <v>1159.957753041174</v>
+        <v>1052.20228737478</v>
       </c>
       <c r="Q3" t="n">
-        <v>1580.010651986078</v>
+        <v>1592.941226006855</v>
       </c>
       <c r="R3" t="n">
-        <v>1697.183430080417</v>
+        <v>1710.114004101195</v>
       </c>
       <c r="S3" t="n">
-        <v>1633.7279925288</v>
+        <v>1646.658566549578</v>
       </c>
       <c r="T3" t="n">
-        <v>1503.549348859402</v>
+        <v>1516.479922880179</v>
       </c>
       <c r="U3" t="n">
-        <v>1327.21280185937</v>
+        <v>1340.143375880148</v>
       </c>
       <c r="V3" t="n">
-        <v>1128.09528392137</v>
+        <v>1141.025857942147</v>
       </c>
       <c r="W3" t="n">
-        <v>942.7725296545636</v>
+        <v>955.703103675341</v>
       </c>
       <c r="X3" t="n">
-        <v>787.9050938934436</v>
+        <v>800.8356679142211</v>
       </c>
       <c r="Y3" t="n">
-        <v>661.4193146726643</v>
+        <v>674.3498886934418</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>433.2298803720686</v>
+        <v>1125.932403234267</v>
       </c>
       <c r="C4" t="n">
-        <v>433.2298803720686</v>
+        <v>953.3706917174922</v>
       </c>
       <c r="D4" t="n">
-        <v>433.2298803720686</v>
+        <v>787.4926989190149</v>
       </c>
       <c r="E4" t="n">
-        <v>433.2298803720686</v>
+        <v>617.7346951697522</v>
       </c>
       <c r="F4" t="n">
-        <v>428.0970671107308</v>
+        <v>441.0276411315084</v>
       </c>
       <c r="G4" t="n">
-        <v>262.5057921365585</v>
+        <v>275.4363661573361</v>
       </c>
       <c r="H4" t="n">
-        <v>122.603617826933</v>
+        <v>135.5341918477106</v>
       </c>
       <c r="I4" t="n">
-        <v>33.94366860160834</v>
+        <v>46.87424262238591</v>
       </c>
       <c r="J4" t="n">
-        <v>120.5233537662982</v>
+        <v>46.87424262238591</v>
       </c>
       <c r="K4" t="n">
-        <v>395.2818083374338</v>
+        <v>256.5834358166535</v>
       </c>
       <c r="L4" t="n">
-        <v>761.43086230084</v>
+        <v>674.7933175846146</v>
       </c>
       <c r="M4" t="n">
-        <v>1181.483761245743</v>
+        <v>1134.277184765528</v>
       </c>
       <c r="N4" t="n">
-        <v>1181.483761245743</v>
+        <v>1576.535987923172</v>
       </c>
       <c r="O4" t="n">
-        <v>1181.483761245743</v>
+        <v>1996.205237148954</v>
       </c>
       <c r="P4" t="n">
-        <v>1528.990655216085</v>
+        <v>2343.712131119295</v>
       </c>
       <c r="Q4" t="n">
-        <v>1697.183430080417</v>
+        <v>2343.712131119295</v>
       </c>
       <c r="R4" t="n">
-        <v>1675.765608785789</v>
+        <v>2322.294309824667</v>
       </c>
       <c r="S4" t="n">
-        <v>1516.524240083786</v>
+        <v>2163.052941122664</v>
       </c>
       <c r="T4" t="n">
-        <v>1270.644793662241</v>
+        <v>1917.173494701119</v>
       </c>
       <c r="U4" t="n">
-        <v>992.2117929153466</v>
+        <v>1638.740493954224</v>
       </c>
       <c r="V4" t="n">
-        <v>705.2562847857771</v>
+        <v>1638.740493954224</v>
       </c>
       <c r="W4" t="n">
-        <v>433.2298803720686</v>
+        <v>1563.142776619842</v>
       </c>
       <c r="X4" t="n">
-        <v>433.2298803720686</v>
+        <v>1317.751021953254</v>
       </c>
       <c r="Y4" t="n">
-        <v>433.2298803720686</v>
+        <v>1317.751021953254</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1248.044874488545</v>
+        <v>2076.000019869234</v>
       </c>
       <c r="C5" t="n">
-        <v>1213.942805712373</v>
+        <v>2041.897951093061</v>
       </c>
       <c r="D5" t="n">
-        <v>1182.073424927221</v>
+        <v>1605.988166267505</v>
       </c>
       <c r="E5" t="n">
-        <v>1152.33908412592</v>
+        <v>1172.213421425801</v>
       </c>
       <c r="F5" t="n">
-        <v>724.4716545351282</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="G5" t="n">
-        <v>323.0738231583921</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
-        <v>453.9965675465116</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K5" t="n">
-        <v>687.9235674375537</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="L5" t="n">
-        <v>687.9235674375537</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="M5" t="n">
-        <v>687.9235674375537</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="N5" t="n">
-        <v>687.9235674375537</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O5" t="n">
-        <v>1107.976466382457</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.976466382457</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="W5" t="n">
-        <v>1693.692224013681</v>
+        <v>2669.245775882865</v>
       </c>
       <c r="X5" t="n">
-        <v>1274.549760592992</v>
+        <v>2506.545310014084</v>
       </c>
       <c r="Y5" t="n">
-        <v>1270.304040933049</v>
+        <v>2502.299590354141</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1113.00182921349</v>
+        <v>741.4772326516127</v>
       </c>
       <c r="C7" t="n">
-        <v>940.4401176967148</v>
+        <v>568.9155211348376</v>
       </c>
       <c r="D7" t="n">
-        <v>774.5621248982375</v>
+        <v>403.0375283363603</v>
       </c>
       <c r="E7" t="n">
-        <v>604.8041211489747</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="F7" t="n">
-        <v>428.0970671107308</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="G7" t="n">
-        <v>262.5057921365585</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H7" t="n">
-        <v>122.603617826933</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
-        <v>120.5233537662982</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K7" t="n">
-        <v>120.5233537662982</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L7" t="n">
-        <v>269.215608100497</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M7" t="n">
-        <v>689.2685070454004</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N7" t="n">
-        <v>1109.321405990304</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O7" t="n">
-        <v>1528.990655216085</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P7" t="n">
-        <v>1528.990655216085</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>1697.183430080417</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S7" t="n">
-        <v>1697.183430080417</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T7" t="n">
-        <v>1532.240118618369</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U7" t="n">
-        <v>1532.240118618369</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V7" t="n">
-        <v>1532.240118618369</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W7" t="n">
-        <v>1532.240118618369</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X7" t="n">
-        <v>1532.240118618369</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y7" t="n">
-        <v>1304.820447932477</v>
+        <v>933.2958513705998</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1777.08642487697</v>
+        <v>2480.040423909638</v>
       </c>
       <c r="C8" t="n">
-        <v>1338.943952060393</v>
+        <v>2041.897951093061</v>
       </c>
       <c r="D8" t="n">
-        <v>903.0341672348377</v>
+        <v>1605.988166267505</v>
       </c>
       <c r="E8" t="n">
-        <v>469.2594223931328</v>
+        <v>1172.213421425801</v>
       </c>
       <c r="F8" t="n">
-        <v>41.39199280234057</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="G8" t="n">
-        <v>41.39199280234057</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H8" t="n">
-        <v>41.39199280234057</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
-        <v>40.97520342948058</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>476.2298908823984</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>983.2980333222205</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L8" t="n">
-        <v>983.2980333222205</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M8" t="n">
-        <v>983.2980333222205</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N8" t="n">
-        <v>983.2980333222205</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O8" t="n">
-        <v>983.2980333222205</v>
+        <v>1462.721985931055</v>
       </c>
       <c r="P8" t="n">
-        <v>1372.53796428115</v>
+        <v>2123.562040472833</v>
       </c>
       <c r="Q8" t="n">
-        <v>1879.606106720972</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R8" t="n">
-        <v>2048.760171474029</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>2048.760171474029</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>2048.760171474029</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="U8" t="n">
-        <v>2048.760171474029</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="V8" t="n">
-        <v>2048.760171474029</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="W8" t="n">
-        <v>2047.945120925466</v>
+        <v>2521.647369394369</v>
       </c>
       <c r="X8" t="n">
-        <v>2032.843061545181</v>
+        <v>2506.545310014084</v>
       </c>
       <c r="Y8" t="n">
-        <v>2028.597341885239</v>
+        <v>2502.299590354141</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>547.1469484207734</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>440.6904872574157</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>345.6001984039689</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>251.4797837309226</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>168.0959453470842</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>82.71085561326811</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>40.97520342948058</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>67.03887658993817</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>391.5972015561505</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>898.6653439959726</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>1079.974044374128</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>1079.974044374128</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>1079.974044374128</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>1079.974044374128</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1079.974044374128</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1587.04218681395</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1704.214964908289</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1640.759527356672</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1510.580883687274</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1334.244336687242</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1135.126818749242</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>949.8040644824357</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>794.9366287213157</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>668.4508495005365</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1120.033364041362</v>
+        <v>986.8689873182002</v>
       </c>
       <c r="C10" t="n">
-        <v>947.4716525245868</v>
+        <v>814.3072758014251</v>
       </c>
       <c r="D10" t="n">
-        <v>781.5936597261095</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E10" t="n">
-        <v>611.8356559768469</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F10" t="n">
-        <v>435.128601938603</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
-        <v>269.5373269644307</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>129.6351526548052</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>40.97520342948058</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>40.97520342948058</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>40.97520342948058</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>459.1850851974416</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>918.6689523783547</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1360.927755535999</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1780.597004761781</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>2048.760171474029</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>2048.760171474029</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>2048.760171474029</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>2048.760171474029</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T10" t="n">
-        <v>2048.760171474029</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U10" t="n">
-        <v>2048.760171474029</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V10" t="n">
-        <v>2048.760171474029</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W10" t="n">
-        <v>1784.663408112828</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X10" t="n">
-        <v>1539.271653446241</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="Y10" t="n">
-        <v>1311.851982760349</v>
+        <v>1178.687606037187</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2054.028047964444</v>
+        <v>1815.6723920228</v>
       </c>
       <c r="C11" t="n">
-        <v>1615.885575147868</v>
+        <v>1377.529919206223</v>
       </c>
       <c r="D11" t="n">
-        <v>1179.975790322312</v>
+        <v>941.6201343806679</v>
       </c>
       <c r="E11" t="n">
-        <v>746.2010454806073</v>
+        <v>507.845389538963</v>
       </c>
       <c r="F11" t="n">
-        <v>318.3336158898151</v>
+        <v>79.97795994817075</v>
       </c>
       <c r="G11" t="n">
-        <v>73.36078363202307</v>
+        <v>79.97795994817075</v>
       </c>
       <c r="H11" t="n">
-        <v>73.36078363202307</v>
+        <v>79.97795994817075</v>
       </c>
       <c r="I11" t="n">
-        <v>72.94399425916308</v>
+        <v>79.97795994817075</v>
       </c>
       <c r="J11" t="n">
-        <v>508.1986817120809</v>
+        <v>197.1768449349867</v>
       </c>
       <c r="K11" t="n">
-        <v>1342.548973670259</v>
+        <v>1031.527136893165</v>
       </c>
       <c r="L11" t="n">
-        <v>1342.548973670259</v>
+        <v>2021.254391251778</v>
       </c>
       <c r="M11" t="n">
-        <v>1342.548973670259</v>
+        <v>2021.254391251778</v>
       </c>
       <c r="N11" t="n">
-        <v>1342.548973670259</v>
+        <v>2021.254391251778</v>
       </c>
       <c r="O11" t="n">
-        <v>2245.230902627402</v>
+        <v>3001.434057822084</v>
       </c>
       <c r="P11" t="n">
-        <v>3073.540777460798</v>
+        <v>3829.74393265548</v>
       </c>
       <c r="Q11" t="n">
-        <v>3620.039563419393</v>
+        <v>3829.74393265548</v>
       </c>
       <c r="R11" t="n">
-        <v>3647.199712958154</v>
+        <v>3998.897997408537</v>
       </c>
       <c r="S11" t="n">
-        <v>3563.547839141991</v>
+        <v>3998.897997408537</v>
       </c>
       <c r="T11" t="n">
-        <v>3563.547839141991</v>
+        <v>3778.830770281576</v>
       </c>
       <c r="U11" t="n">
-        <v>3304.325536459008</v>
+        <v>3519.608467598593</v>
       </c>
       <c r="V11" t="n">
-        <v>3304.325536459008</v>
+        <v>3156.991517532419</v>
       </c>
       <c r="W11" t="n">
-        <v>2899.470081870041</v>
+        <v>3069.400549628744</v>
       </c>
       <c r="X11" t="n">
-        <v>2480.327618449352</v>
+        <v>2650.258086208054</v>
       </c>
       <c r="Y11" t="n">
-        <v>2480.327618449352</v>
+        <v>2241.971962507708</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>579.1157392504558</v>
+        <v>586.1497049394635</v>
       </c>
       <c r="C12" t="n">
-        <v>472.6592780870981</v>
+        <v>479.6932437761058</v>
       </c>
       <c r="D12" t="n">
-        <v>377.5689892336514</v>
+        <v>384.6029549226591</v>
       </c>
       <c r="E12" t="n">
-        <v>283.4485745606051</v>
+        <v>290.4825402496128</v>
       </c>
       <c r="F12" t="n">
-        <v>200.0647361767667</v>
+        <v>207.0987018657744</v>
       </c>
       <c r="G12" t="n">
-        <v>114.6796464429506</v>
+        <v>121.7136121319583</v>
       </c>
       <c r="H12" t="n">
-        <v>72.94399425916308</v>
+        <v>79.97795994817075</v>
       </c>
       <c r="I12" t="n">
-        <v>99.00766741962067</v>
+        <v>106.0416331086284</v>
       </c>
       <c r="J12" t="n">
-        <v>423.5659923858331</v>
+        <v>430.5999580748407</v>
       </c>
       <c r="K12" t="n">
-        <v>1078.272039011557</v>
+        <v>1085.306004700564</v>
       </c>
       <c r="L12" t="n">
-        <v>1078.272039011557</v>
+        <v>1085.306004700564</v>
       </c>
       <c r="M12" t="n">
-        <v>1078.272039011557</v>
+        <v>1085.306004700564</v>
       </c>
       <c r="N12" t="n">
-        <v>1078.272039011557</v>
+        <v>1085.306004700564</v>
       </c>
       <c r="O12" t="n">
-        <v>1078.272039011557</v>
+        <v>1085.306004700564</v>
       </c>
       <c r="P12" t="n">
-        <v>1078.272039011557</v>
+        <v>1085.306004700564</v>
       </c>
       <c r="Q12" t="n">
-        <v>1619.010977643632</v>
+        <v>1626.04494333264</v>
       </c>
       <c r="R12" t="n">
-        <v>1736.183755737972</v>
+        <v>1743.21772142698</v>
       </c>
       <c r="S12" t="n">
-        <v>1672.728318186355</v>
+        <v>1679.762283875363</v>
       </c>
       <c r="T12" t="n">
-        <v>1542.549674516957</v>
+        <v>1549.583640205964</v>
       </c>
       <c r="U12" t="n">
-        <v>1366.213127516925</v>
+        <v>1373.247093205933</v>
       </c>
       <c r="V12" t="n">
-        <v>1167.095609578924</v>
+        <v>1174.129575267932</v>
       </c>
       <c r="W12" t="n">
-        <v>981.7728553121183</v>
+        <v>988.8068210011259</v>
       </c>
       <c r="X12" t="n">
-        <v>826.9054195509982</v>
+        <v>833.9393852400059</v>
       </c>
       <c r="Y12" t="n">
-        <v>700.419640330219</v>
+        <v>707.4536060192266</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1063.342205645719</v>
+        <v>1067.904798112679</v>
       </c>
       <c r="C13" t="n">
-        <v>890.7804941289447</v>
+        <v>895.3430865959034</v>
       </c>
       <c r="D13" t="n">
-        <v>724.9025013304674</v>
+        <v>729.4650937974261</v>
       </c>
       <c r="E13" t="n">
-        <v>555.1444975812046</v>
+        <v>559.7070900481633</v>
       </c>
       <c r="F13" t="n">
-        <v>378.4374435429609</v>
+        <v>383.0000360099195</v>
       </c>
       <c r="G13" t="n">
-        <v>212.8461685687886</v>
+        <v>217.4087610357471</v>
       </c>
       <c r="H13" t="n">
-        <v>72.94399425916308</v>
+        <v>168.6379091734954</v>
       </c>
       <c r="I13" t="n">
-        <v>72.94399425916308</v>
+        <v>79.97795994817076</v>
       </c>
       <c r="J13" t="n">
-        <v>159.5236794238529</v>
+        <v>166.5576451128606</v>
       </c>
       <c r="K13" t="n">
-        <v>434.2821339949885</v>
+        <v>441.3160996839962</v>
       </c>
       <c r="L13" t="n">
-        <v>852.4920157629496</v>
+        <v>859.5259814519573</v>
       </c>
       <c r="M13" t="n">
-        <v>1311.975882943863</v>
+        <v>1319.00984863287</v>
       </c>
       <c r="N13" t="n">
-        <v>1754.234686101507</v>
+        <v>1761.268651790515</v>
       </c>
       <c r="O13" t="n">
-        <v>2173.903935327288</v>
+        <v>2180.937901016296</v>
       </c>
       <c r="P13" t="n">
-        <v>2521.41082929763</v>
+        <v>2528.444794986638</v>
       </c>
       <c r="Q13" t="n">
-        <v>2689.603604161963</v>
+        <v>2696.637569850971</v>
       </c>
       <c r="R13" t="n">
-        <v>2689.603604161963</v>
+        <v>2696.637569850971</v>
       </c>
       <c r="S13" t="n">
-        <v>2619.447990709916</v>
+        <v>2537.396201148967</v>
       </c>
       <c r="T13" t="n">
-        <v>2373.568544288371</v>
+        <v>2291.516754727422</v>
       </c>
       <c r="U13" t="n">
-        <v>2095.135543541477</v>
+        <v>2291.516754727422</v>
       </c>
       <c r="V13" t="n">
-        <v>1808.180035411907</v>
+        <v>2004.561246597853</v>
       </c>
       <c r="W13" t="n">
-        <v>1536.153630998199</v>
+        <v>1732.534842184145</v>
       </c>
       <c r="X13" t="n">
-        <v>1290.761876331611</v>
+        <v>1487.143087517557</v>
       </c>
       <c r="Y13" t="n">
-        <v>1063.342205645719</v>
+        <v>1259.723416831666</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C14" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D14" t="n">
-        <v>1654.847790009656</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E14" t="n">
-        <v>1221.073045167951</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F14" t="n">
-        <v>793.2056155771591</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G14" t="n">
-        <v>391.8077842004229</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H14" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436408</v>
       </c>
       <c r="I14" t="n">
         <v>102.2608402707796</v>
@@ -5288,40 +5288,40 @@
         <v>2446.925785934734</v>
       </c>
       <c r="N14" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O14" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P14" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q14" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R14" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S14" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T14" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U14" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V14" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W14" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X14" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y14" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="15">
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1181.319000882661</v>
+        <v>1057.634124109937</v>
       </c>
       <c r="C16" t="n">
-        <v>1008.757289365886</v>
+        <v>885.0724125931621</v>
       </c>
       <c r="D16" t="n">
-        <v>842.8792965674087</v>
+        <v>719.1944197946848</v>
       </c>
       <c r="E16" t="n">
-        <v>673.1212928181459</v>
+        <v>673.121292818146</v>
       </c>
       <c r="F16" t="n">
-        <v>496.4142387799021</v>
+        <v>496.4142387799022</v>
       </c>
       <c r="G16" t="n">
-        <v>330.8229638057297</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H16" t="n">
         <v>190.9207894961043</v>
@@ -5461,25 +5461,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S16" t="n">
-        <v>2718.920450173579</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T16" t="n">
-        <v>2473.041003752034</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="U16" t="n">
-        <v>2194.608003005139</v>
+        <v>2281.246080724681</v>
       </c>
       <c r="V16" t="n">
-        <v>2117.975449367836</v>
+        <v>1994.290572595112</v>
       </c>
       <c r="W16" t="n">
-        <v>1845.949044954127</v>
+        <v>1722.264168181403</v>
       </c>
       <c r="X16" t="n">
-        <v>1600.55729028754</v>
+        <v>1476.872413514816</v>
       </c>
       <c r="Y16" t="n">
-        <v>1373.137619601648</v>
+        <v>1249.452742828924</v>
       </c>
     </row>
     <row r="17">
@@ -5489,10 +5489,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C17" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D17" t="n">
         <v>1654.847790009657</v>
@@ -5504,7 +5504,7 @@
         <v>793.2056155771595</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H17" t="n">
         <v>102.6776296436396</v>
@@ -5525,40 +5525,40 @@
         <v>2446.925785934734</v>
       </c>
       <c r="N17" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O17" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P17" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R17" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S17" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T17" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U17" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V17" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W17" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="18">
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>952.756877347711</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C19" t="n">
-        <v>780.1951658309359</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D19" t="n">
-        <v>614.3171730324584</v>
+        <v>842.8792965674088</v>
       </c>
       <c r="E19" t="n">
-        <v>444.5591692831957</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F19" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G19" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H19" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I19" t="n">
         <v>102.2608402707796</v>
@@ -5695,28 +5695,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2538.261260176947</v>
+        <v>2650.81040391895</v>
       </c>
       <c r="T19" t="n">
-        <v>2292.381813755403</v>
+        <v>2404.930957497405</v>
       </c>
       <c r="U19" t="n">
-        <v>2013.948813008508</v>
+        <v>2404.930957497405</v>
       </c>
       <c r="V19" t="n">
-        <v>1726.993304878938</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W19" t="n">
-        <v>1454.96690046523</v>
+        <v>1845.949044954128</v>
       </c>
       <c r="X19" t="n">
-        <v>1371.99516675259</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y19" t="n">
-        <v>1144.575496066698</v>
+        <v>1373.137619601649</v>
       </c>
     </row>
     <row r="20">
@@ -5726,10 +5726,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C20" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D20" t="n">
         <v>1654.847790009657</v>
@@ -5741,7 +5741,7 @@
         <v>793.2056155771595</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H20" t="n">
         <v>102.6776296436396</v>
@@ -5759,43 +5759,43 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>2588.899621423627</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N20" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O20" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P20" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W20" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="21">
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1181.319000882661</v>
+        <v>843.1660143917098</v>
       </c>
       <c r="C22" t="n">
-        <v>1008.757289365886</v>
+        <v>843.1660143917098</v>
       </c>
       <c r="D22" t="n">
-        <v>842.8792965674088</v>
+        <v>677.2880215932325</v>
       </c>
       <c r="E22" t="n">
-        <v>673.1212928181459</v>
+        <v>507.5300178439699</v>
       </c>
       <c r="F22" t="n">
-        <v>496.4142387799021</v>
+        <v>330.8229638057261</v>
       </c>
       <c r="G22" t="n">
-        <v>330.8229638057297</v>
+        <v>330.8229638057261</v>
       </c>
       <c r="H22" t="n">
         <v>190.9207894961043</v>
@@ -5932,28 +5932,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R22" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S22" t="n">
-        <v>2559.679081471576</v>
+        <v>2591.090418174894</v>
       </c>
       <c r="T22" t="n">
-        <v>2313.799635050031</v>
+        <v>2345.210971753349</v>
       </c>
       <c r="U22" t="n">
-        <v>2117.975449367836</v>
+        <v>2066.777971006454</v>
       </c>
       <c r="V22" t="n">
-        <v>2117.975449367836</v>
+        <v>1779.822462876885</v>
       </c>
       <c r="W22" t="n">
-        <v>1845.949044954128</v>
+        <v>1507.796058463176</v>
       </c>
       <c r="X22" t="n">
-        <v>1600.55729028754</v>
+        <v>1262.404303796589</v>
       </c>
       <c r="Y22" t="n">
-        <v>1373.137619601648</v>
+        <v>1034.984633110697</v>
       </c>
     </row>
     <row r="23">
@@ -5975,13 +5975,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>970.9960463903957</v>
+        <v>970.9960463903953</v>
       </c>
       <c r="C25" t="n">
-        <v>798.4343348736203</v>
+        <v>838.9992856166232</v>
       </c>
       <c r="D25" t="n">
-        <v>632.556342075143</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="E25" t="n">
-        <v>462.7983383258803</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F25" t="n">
-        <v>286.0912842876365</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G25" t="n">
-        <v>190.9207894961043</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H25" t="n">
         <v>190.9207894961043</v>
@@ -6212,13 +6212,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
@@ -6263,13 +6263,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W26" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X26" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y26" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="27">
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>952.7568773477108</v>
+        <v>1083.7810821021</v>
       </c>
       <c r="C28" t="n">
-        <v>780.1951658309357</v>
+        <v>911.2193705853252</v>
       </c>
       <c r="D28" t="n">
-        <v>614.3171730324584</v>
+        <v>745.3413777868479</v>
       </c>
       <c r="E28" t="n">
-        <v>444.5591692831957</v>
+        <v>575.5833740375851</v>
       </c>
       <c r="F28" t="n">
-        <v>267.852115244952</v>
+        <v>398.8763199993414</v>
       </c>
       <c r="G28" t="n">
-        <v>102.2608402707796</v>
+        <v>233.285045025169</v>
       </c>
       <c r="H28" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6415,19 +6415,19 @@
         <v>2313.799635050031</v>
       </c>
       <c r="U28" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V28" t="n">
-        <v>1889.413325832886</v>
+        <v>1748.411126173567</v>
       </c>
       <c r="W28" t="n">
-        <v>1617.386921419177</v>
+        <v>1748.411126173567</v>
       </c>
       <c r="X28" t="n">
-        <v>1371.99516675259</v>
+        <v>1503.019371506979</v>
       </c>
       <c r="Y28" t="n">
-        <v>1144.575496066698</v>
+        <v>1275.599700821087</v>
       </c>
     </row>
     <row r="29">
@@ -6449,13 +6449,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
@@ -6500,13 +6500,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W29" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X29" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y29" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="30">
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>952.7568773477108</v>
+        <v>970.9960463903951</v>
       </c>
       <c r="C31" t="n">
-        <v>780.1951658309357</v>
+        <v>798.4343348736201</v>
       </c>
       <c r="D31" t="n">
-        <v>614.3171730324584</v>
+        <v>632.5563420751428</v>
       </c>
       <c r="E31" t="n">
-        <v>444.5591692831957</v>
+        <v>462.79833832588</v>
       </c>
       <c r="F31" t="n">
-        <v>267.852115244952</v>
+        <v>286.0912842876362</v>
       </c>
       <c r="G31" t="n">
-        <v>102.2608402707796</v>
+        <v>120.5000093134639</v>
       </c>
       <c r="H31" t="n">
         <v>102.2608402707796</v>
@@ -6646,25 +6646,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2700.681281130895</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T31" t="n">
-        <v>2454.80183470935</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U31" t="n">
-        <v>2176.368833962455</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V31" t="n">
-        <v>1889.413325832886</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W31" t="n">
-        <v>1617.386921419177</v>
+        <v>1635.626090461862</v>
       </c>
       <c r="X31" t="n">
-        <v>1371.99516675259</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y31" t="n">
-        <v>1144.575496066698</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="32">
@@ -6686,13 +6686,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>952.7568773477108</v>
+        <v>970.9960463903951</v>
       </c>
       <c r="C34" t="n">
-        <v>780.1951658309357</v>
+        <v>798.4343348736201</v>
       </c>
       <c r="D34" t="n">
-        <v>614.3171730324584</v>
+        <v>632.5563420751428</v>
       </c>
       <c r="E34" t="n">
-        <v>444.5591692831957</v>
+        <v>462.79833832588</v>
       </c>
       <c r="F34" t="n">
-        <v>267.852115244952</v>
+        <v>286.0912842876362</v>
       </c>
       <c r="G34" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H34" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I34" t="n">
         <v>102.2608402707796</v>
@@ -6880,28 +6880,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R34" t="n">
-        <v>2700.681281130895</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2700.681281130895</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T34" t="n">
-        <v>2454.80183470935</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U34" t="n">
-        <v>2176.368833962455</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V34" t="n">
-        <v>1889.413325832886</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W34" t="n">
-        <v>1617.386921419177</v>
+        <v>1635.626090461862</v>
       </c>
       <c r="X34" t="n">
-        <v>1371.99516675259</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y34" t="n">
-        <v>1144.575496066698</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="35">
@@ -6923,40 +6923,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K35" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L35" t="n">
-        <v>1850.083528321676</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M35" t="n">
-        <v>3007.131363532227</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N35" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O35" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P35" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q35" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R35" t="n">
         <v>5113.04201353898</v>
@@ -7069,7 +7069,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>952.7568773477108</v>
+        <v>952.7568773477109</v>
       </c>
       <c r="C37" t="n">
         <v>780.1951658309357</v>
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2425.390877206711</v>
+        <v>2525.85493345824</v>
       </c>
       <c r="C38" t="n">
-        <v>2003.64811180301</v>
+        <v>2088.129250014523</v>
       </c>
       <c r="D38" t="n">
-        <v>1584.13803439033</v>
+        <v>1652.636254561828</v>
       </c>
       <c r="E38" t="n">
-        <v>1166.762996961501</v>
+        <v>1219.278299092983</v>
       </c>
       <c r="F38" t="n">
-        <v>755.2952747835852</v>
+        <v>791.8276588750507</v>
       </c>
       <c r="G38" t="n">
-        <v>370.2971508197252</v>
+        <v>390.8466168711746</v>
       </c>
       <c r="H38" t="n">
-        <v>97.56670367581786</v>
+        <v>102.133251687251</v>
       </c>
       <c r="I38" t="n">
-        <v>97.56670367581786</v>
+        <v>102.133251687251</v>
       </c>
       <c r="J38" t="n">
-        <v>532.8213911287357</v>
+        <v>537.3879391401689</v>
       </c>
       <c r="K38" t="n">
-        <v>1367.171683086914</v>
+        <v>1371.738231098347</v>
       </c>
       <c r="L38" t="n">
-        <v>2442.231649339773</v>
+        <v>2446.798197351206</v>
       </c>
       <c r="M38" t="n">
-        <v>2442.231649339773</v>
+        <v>2446.798197351206</v>
       </c>
       <c r="N38" t="n">
-        <v>2442.231649339773</v>
+        <v>2582.520192247197</v>
       </c>
       <c r="O38" t="n">
-        <v>3422.411315910079</v>
+        <v>3562.699858817503</v>
       </c>
       <c r="P38" t="n">
-        <v>4250.721190743476</v>
+        <v>4391.0097336509</v>
       </c>
       <c r="Q38" t="n">
-        <v>4797.21997670207</v>
+        <v>4937.508519609494</v>
       </c>
       <c r="R38" t="n">
-        <v>4878.335183790893</v>
+        <v>5106.662584362551</v>
       </c>
       <c r="S38" t="n">
-        <v>4811.083017387607</v>
+        <v>5023.427499919248</v>
       </c>
       <c r="T38" t="n">
-        <v>4607.415497673521</v>
+        <v>4803.777062165146</v>
       </c>
       <c r="U38" t="n">
-        <v>4364.592902403414</v>
+        <v>4544.971548855023</v>
       </c>
       <c r="V38" t="n">
-        <v>4018.375659750116</v>
+        <v>4182.771388161709</v>
       </c>
       <c r="W38" t="n">
-        <v>3629.919912574026</v>
+        <v>3778.332722945603</v>
       </c>
       <c r="X38" t="n">
-        <v>3227.177156566213</v>
+        <v>3359.607048897774</v>
       </c>
       <c r="Y38" t="n">
-        <v>2835.290740278742</v>
+        <v>2951.737714570288</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>603.7384486671107</v>
+        <v>608.3049966785438</v>
       </c>
       <c r="C39" t="n">
-        <v>497.2819875037529</v>
+        <v>501.8485355151861</v>
       </c>
       <c r="D39" t="n">
-        <v>402.1916986503062</v>
+        <v>406.7582466617393</v>
       </c>
       <c r="E39" t="n">
-        <v>308.0712839772599</v>
+        <v>312.6378319886931</v>
       </c>
       <c r="F39" t="n">
-        <v>224.6874455934215</v>
+        <v>229.2539936048547</v>
       </c>
       <c r="G39" t="n">
-        <v>139.3023558596054</v>
+        <v>143.8689038710386</v>
       </c>
       <c r="H39" t="n">
-        <v>97.56670367581786</v>
+        <v>102.133251687251</v>
       </c>
       <c r="I39" t="n">
-        <v>123.6303768362755</v>
+        <v>128.1969248477086</v>
       </c>
       <c r="J39" t="n">
-        <v>448.1887018024878</v>
+        <v>452.755249813921</v>
       </c>
       <c r="K39" t="n">
-        <v>1102.894748428211</v>
+        <v>1107.461296439645</v>
       </c>
       <c r="L39" t="n">
-        <v>1102.894748428211</v>
+        <v>1107.461296439645</v>
       </c>
       <c r="M39" t="n">
-        <v>1102.894748428211</v>
+        <v>1107.461296439645</v>
       </c>
       <c r="N39" t="n">
-        <v>1102.894748428211</v>
+        <v>1107.461296439645</v>
       </c>
       <c r="O39" t="n">
-        <v>1102.894748428211</v>
+        <v>1107.461296439645</v>
       </c>
       <c r="P39" t="n">
-        <v>1102.894748428211</v>
+        <v>1107.461296439645</v>
       </c>
       <c r="Q39" t="n">
-        <v>1643.633687060287</v>
+        <v>1648.20023507172</v>
       </c>
       <c r="R39" t="n">
-        <v>1760.806465154627</v>
+        <v>1765.37301316606</v>
       </c>
       <c r="S39" t="n">
-        <v>1697.35102760301</v>
+        <v>1701.917575614443</v>
       </c>
       <c r="T39" t="n">
-        <v>1567.172383933611</v>
+        <v>1571.738931945045</v>
       </c>
       <c r="U39" t="n">
-        <v>1390.83583693358</v>
+        <v>1395.402384945013</v>
       </c>
       <c r="V39" t="n">
-        <v>1191.718318995579</v>
+        <v>1196.284867007012</v>
       </c>
       <c r="W39" t="n">
-        <v>1006.395564728773</v>
+        <v>1010.962112740206</v>
       </c>
       <c r="X39" t="n">
-        <v>851.5281289676531</v>
+        <v>856.0946769790862</v>
       </c>
       <c r="Y39" t="n">
-        <v>725.0423497468738</v>
+        <v>729.608897758307</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1061.826912397566</v>
+        <v>950.5453418998821</v>
       </c>
       <c r="C40" t="n">
-        <v>905.6649082936667</v>
+        <v>778.4004197559671</v>
       </c>
       <c r="D40" t="n">
-        <v>756.1866229080656</v>
+        <v>612.9392163303497</v>
       </c>
       <c r="E40" t="n">
-        <v>602.828326571679</v>
+        <v>443.5980019539471</v>
       </c>
       <c r="F40" t="n">
-        <v>442.5209799463113</v>
+        <v>267.3077372885633</v>
       </c>
       <c r="G40" t="n">
-        <v>293.329412385015</v>
+        <v>102.133251687251</v>
       </c>
       <c r="H40" t="n">
-        <v>169.8269454882664</v>
+        <v>102.133251687251</v>
       </c>
       <c r="I40" t="n">
-        <v>97.56670367581786</v>
+        <v>102.133251687251</v>
       </c>
       <c r="J40" t="n">
-        <v>200.2197420758676</v>
+        <v>189.121432116281</v>
       </c>
       <c r="K40" t="n">
-        <v>491.0515498823631</v>
+        <v>464.2883819517568</v>
       </c>
       <c r="L40" t="n">
-        <v>925.334784885684</v>
+        <v>882.906758984058</v>
       </c>
       <c r="M40" t="n">
-        <v>1400.892005301957</v>
+        <v>1342.799121429311</v>
       </c>
       <c r="N40" t="n">
-        <v>1859.224161694961</v>
+        <v>1785.466419851296</v>
       </c>
       <c r="O40" t="n">
-        <v>2294.966764156103</v>
+        <v>2205.544164341418</v>
       </c>
       <c r="P40" t="n">
-        <v>2658.547011361804</v>
+        <v>2553.4595535761</v>
       </c>
       <c r="Q40" t="n">
-        <v>2842.813139461496</v>
+        <v>2722.060823704772</v>
       </c>
       <c r="R40" t="n">
-        <v>2837.795025579744</v>
+        <v>2722.060823704772</v>
       </c>
       <c r="S40" t="n">
-        <v>2694.953364290617</v>
+        <v>2563.236244375629</v>
       </c>
       <c r="T40" t="n">
-        <v>2465.473625281948</v>
+        <v>2450.089563024361</v>
       </c>
       <c r="U40" t="n">
-        <v>2203.440331947929</v>
+        <v>2172.073351650326</v>
       </c>
       <c r="V40" t="n">
-        <v>1932.884531231236</v>
+        <v>1885.534632893617</v>
       </c>
       <c r="W40" t="n">
-        <v>1677.257834230404</v>
+        <v>1613.925017852768</v>
       </c>
       <c r="X40" t="n">
-        <v>1448.265786976692</v>
+        <v>1368.950052559041</v>
       </c>
       <c r="Y40" t="n">
-        <v>1237.245823703677</v>
+        <v>1141.947171246009</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2425.390877206712</v>
+        <v>2525.854933458239</v>
       </c>
       <c r="C41" t="n">
-        <v>2003.648111803011</v>
+        <v>2088.129250014523</v>
       </c>
       <c r="D41" t="n">
-        <v>1584.138034390332</v>
+        <v>1652.636254561827</v>
       </c>
       <c r="E41" t="n">
-        <v>1166.762996961503</v>
+        <v>1219.278299092982</v>
       </c>
       <c r="F41" t="n">
-        <v>755.2952747835866</v>
+        <v>791.82765887505</v>
       </c>
       <c r="G41" t="n">
-        <v>370.2971508197266</v>
+        <v>390.8466168711747</v>
       </c>
       <c r="H41" t="n">
-        <v>97.56670367581899</v>
+        <v>102.133251687251</v>
       </c>
       <c r="I41" t="n">
-        <v>97.56670367581786</v>
+        <v>102.133251687251</v>
       </c>
       <c r="J41" t="n">
-        <v>532.8213911287357</v>
+        <v>537.3879391401689</v>
       </c>
       <c r="K41" t="n">
-        <v>1367.171683086914</v>
+        <v>1371.738231098347</v>
       </c>
       <c r="L41" t="n">
-        <v>2442.231649339773</v>
+        <v>2446.798197351206</v>
       </c>
       <c r="M41" t="n">
-        <v>2442.231649339773</v>
+        <v>2446.798197351206</v>
       </c>
       <c r="N41" t="n">
-        <v>2442.231649339773</v>
+        <v>2582.520192247197</v>
       </c>
       <c r="O41" t="n">
-        <v>3422.411315910079</v>
+        <v>3562.699858817503</v>
       </c>
       <c r="P41" t="n">
-        <v>4250.721190743476</v>
+        <v>4391.0097336509</v>
       </c>
       <c r="Q41" t="n">
-        <v>4797.21997670207</v>
+        <v>4937.508519609494</v>
       </c>
       <c r="R41" t="n">
-        <v>4878.335183790893</v>
+        <v>5106.662584362551</v>
       </c>
       <c r="S41" t="n">
-        <v>4811.083017387607</v>
+        <v>5023.427499919248</v>
       </c>
       <c r="T41" t="n">
-        <v>4607.415497673522</v>
+        <v>4803.777062165146</v>
       </c>
       <c r="U41" t="n">
-        <v>4364.592902403415</v>
+        <v>4544.971548855023</v>
       </c>
       <c r="V41" t="n">
-        <v>4018.375659750117</v>
+        <v>4182.771388161709</v>
       </c>
       <c r="W41" t="n">
-        <v>3629.919912574027</v>
+        <v>3778.332722945603</v>
       </c>
       <c r="X41" t="n">
-        <v>3227.177156566214</v>
+        <v>3359.607048897773</v>
       </c>
       <c r="Y41" t="n">
-        <v>2835.290740278743</v>
+        <v>2951.737714570287</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>603.7384486671107</v>
+        <v>608.3049966785438</v>
       </c>
       <c r="C42" t="n">
-        <v>497.2819875037529</v>
+        <v>501.8485355151861</v>
       </c>
       <c r="D42" t="n">
-        <v>402.1916986503062</v>
+        <v>406.7582466617393</v>
       </c>
       <c r="E42" t="n">
-        <v>308.0712839772599</v>
+        <v>312.6378319886931</v>
       </c>
       <c r="F42" t="n">
-        <v>224.6874455934215</v>
+        <v>229.2539936048547</v>
       </c>
       <c r="G42" t="n">
-        <v>139.3023558596054</v>
+        <v>143.8689038710386</v>
       </c>
       <c r="H42" t="n">
-        <v>97.56670367581786</v>
+        <v>102.133251687251</v>
       </c>
       <c r="I42" t="n">
-        <v>123.6303768362755</v>
+        <v>128.1969248477086</v>
       </c>
       <c r="J42" t="n">
-        <v>448.1887018024878</v>
+        <v>452.755249813921</v>
       </c>
       <c r="K42" t="n">
-        <v>1102.894748428211</v>
+        <v>1107.461296439645</v>
       </c>
       <c r="L42" t="n">
-        <v>1102.894748428211</v>
+        <v>1107.461296439645</v>
       </c>
       <c r="M42" t="n">
-        <v>1102.894748428211</v>
+        <v>1107.461296439645</v>
       </c>
       <c r="N42" t="n">
-        <v>1102.894748428211</v>
+        <v>1107.461296439645</v>
       </c>
       <c r="O42" t="n">
-        <v>1102.894748428211</v>
+        <v>1107.461296439645</v>
       </c>
       <c r="P42" t="n">
-        <v>1102.894748428211</v>
+        <v>1107.461296439645</v>
       </c>
       <c r="Q42" t="n">
-        <v>1643.633687060287</v>
+        <v>1648.20023507172</v>
       </c>
       <c r="R42" t="n">
-        <v>1760.806465154627</v>
+        <v>1765.37301316606</v>
       </c>
       <c r="S42" t="n">
-        <v>1697.35102760301</v>
+        <v>1701.917575614443</v>
       </c>
       <c r="T42" t="n">
-        <v>1567.172383933611</v>
+        <v>1571.738931945045</v>
       </c>
       <c r="U42" t="n">
-        <v>1390.83583693358</v>
+        <v>1395.402384945013</v>
       </c>
       <c r="V42" t="n">
-        <v>1191.718318995579</v>
+        <v>1196.284867007012</v>
       </c>
       <c r="W42" t="n">
-        <v>1006.395564728773</v>
+        <v>1010.962112740206</v>
       </c>
       <c r="X42" t="n">
-        <v>851.5281289676531</v>
+        <v>856.0946769790862</v>
       </c>
       <c r="Y42" t="n">
-        <v>725.0423497468738</v>
+        <v>729.608897758307</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1061.826912397566</v>
+        <v>950.5453418998821</v>
       </c>
       <c r="C43" t="n">
-        <v>905.6649082936674</v>
+        <v>778.4004197559672</v>
       </c>
       <c r="D43" t="n">
-        <v>756.1866229080663</v>
+        <v>612.9392163303498</v>
       </c>
       <c r="E43" t="n">
-        <v>602.8283265716796</v>
+        <v>443.5980019539471</v>
       </c>
       <c r="F43" t="n">
-        <v>442.5209799463114</v>
+        <v>267.3077372885633</v>
       </c>
       <c r="G43" t="n">
-        <v>293.3294123850151</v>
+        <v>102.133251687251</v>
       </c>
       <c r="H43" t="n">
-        <v>169.8269454882657</v>
+        <v>102.133251687251</v>
       </c>
       <c r="I43" t="n">
-        <v>97.56670367581786</v>
+        <v>102.133251687251</v>
       </c>
       <c r="J43" t="n">
-        <v>200.2197420758676</v>
+        <v>189.121432116281</v>
       </c>
       <c r="K43" t="n">
-        <v>491.0515498823631</v>
+        <v>464.2883819517567</v>
       </c>
       <c r="L43" t="n">
-        <v>925.334784885684</v>
+        <v>882.9067589840579</v>
       </c>
       <c r="M43" t="n">
-        <v>1400.892005301957</v>
+        <v>1342.799121429311</v>
       </c>
       <c r="N43" t="n">
-        <v>1859.224161694961</v>
+        <v>1785.466419851296</v>
       </c>
       <c r="O43" t="n">
-        <v>2294.966764156103</v>
+        <v>2205.544164341417</v>
       </c>
       <c r="P43" t="n">
-        <v>2658.547011361804</v>
+        <v>2553.459553576099</v>
       </c>
       <c r="Q43" t="n">
-        <v>2842.813139461496</v>
+        <v>2722.060823704771</v>
       </c>
       <c r="R43" t="n">
-        <v>2837.795025579744</v>
+        <v>2722.060823704771</v>
       </c>
       <c r="S43" t="n">
-        <v>2694.953364290617</v>
+        <v>2563.236244375628</v>
       </c>
       <c r="T43" t="n">
-        <v>2465.473625281948</v>
+        <v>2317.773587326943</v>
       </c>
       <c r="U43" t="n">
-        <v>2203.44033194793</v>
+        <v>2172.073351650326</v>
       </c>
       <c r="V43" t="n">
-        <v>1932.884531231237</v>
+        <v>1885.534632893617</v>
       </c>
       <c r="W43" t="n">
-        <v>1677.257834230404</v>
+        <v>1613.925017852768</v>
       </c>
       <c r="X43" t="n">
-        <v>1448.265786976693</v>
+        <v>1368.950052559041</v>
       </c>
       <c r="Y43" t="n">
-        <v>1237.245823703677</v>
+        <v>1141.947171246009</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2425.390877206711</v>
+        <v>2525.854933458239</v>
       </c>
       <c r="C44" t="n">
-        <v>2003.64811180301</v>
+        <v>2088.129250014523</v>
       </c>
       <c r="D44" t="n">
-        <v>1584.138034390331</v>
+        <v>1652.636254561828</v>
       </c>
       <c r="E44" t="n">
-        <v>1166.762996961502</v>
+        <v>1219.278299092983</v>
       </c>
       <c r="F44" t="n">
-        <v>755.295274783586</v>
+        <v>791.8276588750508</v>
       </c>
       <c r="G44" t="n">
-        <v>370.2971508197261</v>
+        <v>390.8466168711747</v>
       </c>
       <c r="H44" t="n">
-        <v>97.56670367581786</v>
+        <v>102.133251687251</v>
       </c>
       <c r="I44" t="n">
-        <v>97.56670367581786</v>
+        <v>102.133251687251</v>
       </c>
       <c r="J44" t="n">
-        <v>240.5680377815986</v>
+        <v>537.3879391401689</v>
       </c>
       <c r="K44" t="n">
-        <v>240.5680377815986</v>
+        <v>1371.738231098347</v>
       </c>
       <c r="L44" t="n">
-        <v>240.5680377815986</v>
+        <v>2446.798197351206</v>
       </c>
       <c r="M44" t="n">
-        <v>1397.615872992149</v>
+        <v>2582.520192247197</v>
       </c>
       <c r="N44" t="n">
-        <v>2523.346856428596</v>
+        <v>2582.520192247197</v>
       </c>
       <c r="O44" t="n">
-        <v>3503.526522998903</v>
+        <v>3562.699858817503</v>
       </c>
       <c r="P44" t="n">
-        <v>4331.836397832299</v>
+        <v>4391.0097336509</v>
       </c>
       <c r="Q44" t="n">
-        <v>4878.335183790893</v>
+        <v>4937.508519609494</v>
       </c>
       <c r="R44" t="n">
-        <v>4878.335183790893</v>
+        <v>5106.662584362551</v>
       </c>
       <c r="S44" t="n">
-        <v>4811.083017387607</v>
+        <v>5023.427499919248</v>
       </c>
       <c r="T44" t="n">
-        <v>4607.415497673521</v>
+        <v>4803.777062165146</v>
       </c>
       <c r="U44" t="n">
-        <v>4364.592902403414</v>
+        <v>4544.971548855023</v>
       </c>
       <c r="V44" t="n">
-        <v>4018.375659750116</v>
+        <v>4182.771388161709</v>
       </c>
       <c r="W44" t="n">
-        <v>3629.919912574026</v>
+        <v>3778.332722945603</v>
       </c>
       <c r="X44" t="n">
-        <v>3227.177156566213</v>
+        <v>3359.607048897774</v>
       </c>
       <c r="Y44" t="n">
-        <v>2835.290740278742</v>
+        <v>2951.737714570287</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>603.7384486671107</v>
+        <v>608.3049966785438</v>
       </c>
       <c r="C45" t="n">
-        <v>497.2819875037529</v>
+        <v>501.8485355151861</v>
       </c>
       <c r="D45" t="n">
-        <v>402.1916986503062</v>
+        <v>406.7582466617393</v>
       </c>
       <c r="E45" t="n">
-        <v>308.0712839772599</v>
+        <v>312.6378319886931</v>
       </c>
       <c r="F45" t="n">
-        <v>224.6874455934215</v>
+        <v>229.2539936048547</v>
       </c>
       <c r="G45" t="n">
-        <v>139.3023558596054</v>
+        <v>143.8689038710386</v>
       </c>
       <c r="H45" t="n">
-        <v>97.56670367581786</v>
+        <v>102.133251687251</v>
       </c>
       <c r="I45" t="n">
-        <v>123.6303768362755</v>
+        <v>128.1969248477086</v>
       </c>
       <c r="J45" t="n">
-        <v>448.1887018024878</v>
+        <v>452.755249813921</v>
       </c>
       <c r="K45" t="n">
-        <v>1102.894748428211</v>
+        <v>1107.461296439645</v>
       </c>
       <c r="L45" t="n">
-        <v>1102.894748428211</v>
+        <v>1107.461296439645</v>
       </c>
       <c r="M45" t="n">
-        <v>1102.894748428211</v>
+        <v>1107.461296439645</v>
       </c>
       <c r="N45" t="n">
-        <v>1102.894748428211</v>
+        <v>1107.461296439645</v>
       </c>
       <c r="O45" t="n">
-        <v>1102.894748428211</v>
+        <v>1107.461296439645</v>
       </c>
       <c r="P45" t="n">
-        <v>1102.894748428211</v>
+        <v>1107.461296439645</v>
       </c>
       <c r="Q45" t="n">
-        <v>1643.633687060287</v>
+        <v>1648.20023507172</v>
       </c>
       <c r="R45" t="n">
-        <v>1760.806465154627</v>
+        <v>1765.37301316606</v>
       </c>
       <c r="S45" t="n">
-        <v>1697.35102760301</v>
+        <v>1701.917575614443</v>
       </c>
       <c r="T45" t="n">
-        <v>1567.172383933611</v>
+        <v>1571.738931945045</v>
       </c>
       <c r="U45" t="n">
-        <v>1390.83583693358</v>
+        <v>1395.402384945013</v>
       </c>
       <c r="V45" t="n">
-        <v>1191.718318995579</v>
+        <v>1196.284867007012</v>
       </c>
       <c r="W45" t="n">
-        <v>1006.395564728773</v>
+        <v>1010.962112740206</v>
       </c>
       <c r="X45" t="n">
-        <v>851.5281289676531</v>
+        <v>856.0946769790862</v>
       </c>
       <c r="Y45" t="n">
-        <v>725.0423497468738</v>
+        <v>729.608897758307</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1061.826912397566</v>
+        <v>797.2283342806963</v>
       </c>
       <c r="C46" t="n">
-        <v>905.6649082936669</v>
+        <v>625.0834121367814</v>
       </c>
       <c r="D46" t="n">
-        <v>756.1866229080656</v>
+        <v>587.2501156658028</v>
       </c>
       <c r="E46" t="n">
-        <v>602.8283265716797</v>
+        <v>417.9089012894001</v>
       </c>
       <c r="F46" t="n">
-        <v>442.520979946312</v>
+        <v>241.6186366240165</v>
       </c>
       <c r="G46" t="n">
-        <v>293.3294123850158</v>
+        <v>241.6186366240165</v>
       </c>
       <c r="H46" t="n">
-        <v>169.8269454882664</v>
+        <v>102.133251687251</v>
       </c>
       <c r="I46" t="n">
-        <v>97.56670367581786</v>
+        <v>102.133251687251</v>
       </c>
       <c r="J46" t="n">
-        <v>200.2197420758676</v>
+        <v>189.121432116281</v>
       </c>
       <c r="K46" t="n">
-        <v>491.0515498823631</v>
+        <v>464.2883819517567</v>
       </c>
       <c r="L46" t="n">
-        <v>925.334784885684</v>
+        <v>882.9067589840579</v>
       </c>
       <c r="M46" t="n">
-        <v>1400.892005301957</v>
+        <v>1342.799121429311</v>
       </c>
       <c r="N46" t="n">
-        <v>1859.224161694961</v>
+        <v>1785.466419851296</v>
       </c>
       <c r="O46" t="n">
-        <v>2294.966764156103</v>
+        <v>2205.544164341417</v>
       </c>
       <c r="P46" t="n">
-        <v>2658.547011361804</v>
+        <v>2553.459553576099</v>
       </c>
       <c r="Q46" t="n">
-        <v>2842.813139461496</v>
+        <v>2722.060823704771</v>
       </c>
       <c r="R46" t="n">
-        <v>2837.795025579744</v>
+        <v>2701.059791783003</v>
       </c>
       <c r="S46" t="n">
-        <v>2694.953364290617</v>
+        <v>2542.23521245386</v>
       </c>
       <c r="T46" t="n">
-        <v>2465.473625281948</v>
+        <v>2296.772555405175</v>
       </c>
       <c r="U46" t="n">
-        <v>2203.44033194793</v>
+        <v>2018.75634403114</v>
       </c>
       <c r="V46" t="n">
-        <v>1932.884531231236</v>
+        <v>1732.217625274431</v>
       </c>
       <c r="W46" t="n">
-        <v>1677.257834230404</v>
+        <v>1460.608010233582</v>
       </c>
       <c r="X46" t="n">
-        <v>1448.265786976693</v>
+        <v>1215.633044939855</v>
       </c>
       <c r="Y46" t="n">
-        <v>1237.245823703677</v>
+        <v>988.6301636268234</v>
       </c>
     </row>
   </sheetData>
@@ -7976,10 +7976,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>585.9280327798238</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -7991,13 +7991,13 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>236.2898988798406</v>
+        <v>571.5773715962773</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8058,10 +8058,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>585.9280327798239</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>75.39120623605891</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8070,13 +8070,13 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>358.9284720888815</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8134,28 +8134,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>211.8274678729976</v>
       </c>
       <c r="L4" t="n">
-        <v>369.8475292559658</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8213,10 +8213,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>236.2898988798406</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -8228,13 +8228,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8295,10 +8295,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8374,22 +8374,22 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>150.1941962971706</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
         <v>169.8916917821538</v>
@@ -8453,7 +8453,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>512.1900428685071</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -8465,16 +8465,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>316.389926674475</v>
       </c>
       <c r="P8" t="n">
-        <v>393.1716474332623</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>512.1900428685071</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8532,10 +8532,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>512.1900428685072</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
-        <v>183.1401013920757</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8550,7 +8550,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>512.1900428685071</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8608,10 +8608,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
@@ -8626,10 +8626,10 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
-        <v>270.8718855679276</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8687,13 +8687,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>439.6511994473918</v>
+        <v>118.3827121078949</v>
       </c>
       <c r="K11" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>999.7244993521344</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -8702,16 +8702,16 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>911.7999282395383</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458549</v>
       </c>
       <c r="Q11" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>27.43449448359661</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8769,7 +8769,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158823</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8936,7 +8936,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>143.4079146352447</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831379</v>
@@ -9173,7 +9173,7 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>143.4079146352447</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
@@ -9407,10 +9407,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
@@ -10583,31 +10583,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10832,7 +10832,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>137.0929241373647</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
@@ -10844,7 +10844,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
-        <v>81.93455261497274</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10902,7 +10902,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -11069,7 +11069,7 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>137.0929241373647</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
@@ -11081,7 +11081,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>81.93455261497274</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11139,7 +11139,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11294,19 +11294,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>144.4457920260412</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>1168.735187081365</v>
+        <v>137.0929241373647</v>
       </c>
       <c r="N44" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831379</v>
@@ -11318,7 +11318,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11376,7 +11376,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -23270,13 +23270,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>154.8607491277557</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,25 +23306,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>314.0918418184383</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23431,10 +23431,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>90.22000922290007</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,13 +23464,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>88.19489769745726</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23513,7 +23513,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>-1.151023720780131e-12</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23659,7 +23659,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>122.4480280049967</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23701,16 +23701,16 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>208.2197249473434</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23735,7 +23735,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>-1.193711796076968e-12</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23905,10 +23905,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,16 +23935,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>90.2200092229004</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>160.7958207444079</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24127,7 +24127,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24139,7 +24139,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24172,19 +24172,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>52.30086641796647</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>81.78272691405303</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24364,22 +24364,22 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>40.15930123557288</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>69.7165723808137</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24616,10 +24616,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>96.56253959275514</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24655,13 +24655,13 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>139.5921776627262</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24853,7 +24853,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>120.4463752142718</v>
       </c>
       <c r="I31" t="n">
         <v>87.77334973307141</v>
@@ -24886,7 +24886,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>139.5921776627252</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25087,13 +25087,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>69.71657238081404</v>
       </c>
       <c r="H34" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>3.146865729423709</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
         <v>157.6489550149833</v>
@@ -25360,7 +25360,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>139.5921776627252</v>
+        <v>139.5921776627254</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25564,10 +25564,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.0905310873978</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.36072825393995</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,13 +25594,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>20.79102160255038</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>130.9928159404426</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25801,10 +25801,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.0905310873978</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.36072825393998</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>20.7910216025504</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25840,7 +25840,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>130.9928159404434</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26026,7 +26026,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>126.3516278850923</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26035,13 +26035,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>163.5227407452992</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.36072825393997</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>767863.2978260675</v>
+        <v>776151.2733259508</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>767863.2978260675</v>
+        <v>780334.7998837349</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>772370.2275483164</v>
+        <v>780334.7998837349</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>621530.3038585085</v>
+        <v>662340.6289264967</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>791623.5440874095</v>
+        <v>791623.5440874099</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>791623.5440874095</v>
+        <v>791623.5440874099</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>791623.5440874095</v>
+        <v>791623.5440874099</v>
       </c>
     </row>
     <row r="9">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>802085.1870136461</v>
+        <v>791885.338395225</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>802085.1870136461</v>
+        <v>791885.338395225</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>802085.1870136461</v>
+        <v>791885.338395225</v>
       </c>
     </row>
   </sheetData>
@@ -26314,13 +26314,13 @@
         <v>201055.2449589032</v>
       </c>
       <c r="C2" t="n">
+        <v>201055.2449589031</v>
+      </c>
+      <c r="D2" t="n">
         <v>201055.2449589032</v>
       </c>
-      <c r="D2" t="n">
-        <v>201055.2449589031</v>
-      </c>
       <c r="E2" t="n">
-        <v>155120.1120808051</v>
+        <v>165305.4596966818</v>
       </c>
       <c r="F2" t="n">
         <v>197571.5940515071</v>
@@ -26347,13 +26347,13 @@
         <v>197571.5940515071</v>
       </c>
       <c r="N2" t="n">
-        <v>201055.2449589032</v>
+        <v>197660.1290869443</v>
       </c>
       <c r="O2" t="n">
-        <v>201055.2449589031</v>
+        <v>197660.1290869443</v>
       </c>
       <c r="P2" t="n">
-        <v>201055.2449589032</v>
+        <v>197660.1290869443</v>
       </c>
     </row>
     <row r="3">
@@ -26363,19 +26363,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>142191.3006597099</v>
+        <v>196357.9601292729</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>26358.4242174239</v>
       </c>
       <c r="D3" t="n">
-        <v>27302.5707947744</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>119314.7203543118</v>
+        <v>99190.38620900086</v>
       </c>
       <c r="F3" t="n">
-        <v>105000.4827540555</v>
+        <v>79807.8070914479</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,19 +26387,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449902</v>
+        <v>153304.5542086442</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>20997.92775377322</v>
       </c>
       <c r="L3" t="n">
-        <v>22245.22726401264</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>99584.38187400246</v>
+        <v>82787.8845890449</v>
       </c>
       <c r="N3" t="n">
-        <v>88373.14763716044</v>
+        <v>68160.46143052656</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,16 +26415,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>199828.8262465156</v>
+        <v>171125.3253081258</v>
       </c>
       <c r="C4" t="n">
-        <v>199828.8262465156</v>
+        <v>156636.6412526738</v>
       </c>
       <c r="D4" t="n">
-        <v>184220.1095564568</v>
+        <v>156636.6412526738</v>
       </c>
       <c r="E4" t="n">
-        <v>53389.63827696996</v>
+        <v>56895.25735912734</v>
       </c>
       <c r="F4" t="n">
         <v>68000.69828933282</v>
@@ -26433,31 +26433,31 @@
         <v>68000.69828933282</v>
       </c>
       <c r="H4" t="n">
+        <v>68000.69828933282</v>
+      </c>
+      <c r="I4" t="n">
         <v>68000.69828933281</v>
       </c>
-      <c r="I4" t="n">
-        <v>68000.69828933279</v>
-      </c>
       <c r="J4" t="n">
-        <v>68000.69828933279</v>
+        <v>68000.69828933281</v>
       </c>
       <c r="K4" t="n">
-        <v>68000.69828933279</v>
+        <v>68000.69828933281</v>
       </c>
       <c r="L4" t="n">
-        <v>68000.69828933279</v>
+        <v>68000.69828933281</v>
       </c>
       <c r="M4" t="n">
         <v>68000.69828933281</v>
       </c>
       <c r="N4" t="n">
-        <v>81349.24995213679</v>
+        <v>68354.0829952795</v>
       </c>
       <c r="O4" t="n">
-        <v>81349.24995213673</v>
+        <v>68354.08299527947</v>
       </c>
       <c r="P4" t="n">
-        <v>81349.2499521368</v>
+        <v>68354.08299527949</v>
       </c>
     </row>
     <row r="5">
@@ -26467,25 +26467,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>59424.78813722234</v>
+        <v>69252.02439301329</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="D5" t="n">
-        <v>64768.75460640524</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>55437.43563696394</v>
+        <v>60783.24956060977</v>
       </c>
       <c r="F5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="G5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="H5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="I5" t="n">
         <v>77718.23860579252</v>
@@ -26503,13 +26503,13 @@
         <v>77718.23860579252</v>
       </c>
       <c r="N5" t="n">
-        <v>75515.61472608973</v>
+        <v>77655.95995743987</v>
       </c>
       <c r="O5" t="n">
-        <v>75515.61472608973</v>
+        <v>77655.95995743987</v>
       </c>
       <c r="P5" t="n">
-        <v>75515.61472608973</v>
+        <v>77655.95995743987</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-200389.6700845447</v>
+        <v>-235680.0648715088</v>
       </c>
       <c r="C6" t="n">
-        <v>-58198.36942483478</v>
+        <v>-56152.34507295223</v>
       </c>
       <c r="D6" t="n">
-        <v>-75236.18999873329</v>
+        <v>-29793.92085552828</v>
       </c>
       <c r="E6" t="n">
-        <v>-73021.68218744054</v>
+        <v>-51801.76533380426</v>
       </c>
       <c r="F6" t="n">
-        <v>-53147.82559767374</v>
+        <v>-27978.37427444876</v>
       </c>
       <c r="G6" t="n">
-        <v>51852.65715638176</v>
+        <v>51829.43281699911</v>
       </c>
       <c r="H6" t="n">
-        <v>51852.65715638179</v>
+        <v>51829.43281699911</v>
       </c>
       <c r="I6" t="n">
-        <v>51852.65715638179</v>
+        <v>51829.43281699913</v>
       </c>
       <c r="J6" t="n">
-        <v>-59161.8081886084</v>
+        <v>-101475.1213916451</v>
       </c>
       <c r="K6" t="n">
-        <v>51852.65715638176</v>
+        <v>30831.5050632259</v>
       </c>
       <c r="L6" t="n">
-        <v>29607.42989236911</v>
+        <v>51829.43281699913</v>
       </c>
       <c r="M6" t="n">
-        <v>-47731.7247176207</v>
+        <v>-30958.45177204577</v>
       </c>
       <c r="N6" t="n">
-        <v>-44182.76735648378</v>
+        <v>-16533.00940211472</v>
       </c>
       <c r="O6" t="n">
-        <v>44190.38028067666</v>
+        <v>51627.4520284119</v>
       </c>
       <c r="P6" t="n">
-        <v>44190.38028067668</v>
+        <v>51627.45202841186</v>
       </c>
     </row>
   </sheetData>
@@ -26719,13 +26719,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791314577</v>
       </c>
       <c r="O2" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791314311</v>
       </c>
       <c r="P2" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791314453</v>
       </c>
     </row>
     <row r="3">
@@ -26787,16 +26787,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>585.9280327798239</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="D4" t="n">
-        <v>512.1900428685072</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>911.7999282395384</v>
+        <v>999.7244993521343</v>
       </c>
       <c r="F4" t="n">
         <v>1278.260503384745</v>
@@ -26823,13 +26823,13 @@
         <v>1278.260503384745</v>
       </c>
       <c r="N4" t="n">
-        <v>1219.583795947723</v>
+        <v>1276.665646090638</v>
       </c>
       <c r="O4" t="n">
-        <v>1219.583795947723</v>
+        <v>1276.665646090638</v>
       </c>
       <c r="P4" t="n">
-        <v>1219.583795947723</v>
+        <v>1276.665646090638</v>
       </c>
     </row>
   </sheetData>
@@ -26941,7 +26941,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791314577</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27009,19 +27009,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>585.9280327798239</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>81.58717382803309</v>
       </c>
       <c r="D4" t="n">
-        <v>87.89418534840291</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>399.6098853710312</v>
+        <v>332.2092927442774</v>
       </c>
       <c r="F4" t="n">
-        <v>366.4605751452067</v>
+        <v>278.536004032611</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,19 +27033,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>585.9280327798239</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>81.58717382803309</v>
       </c>
       <c r="L4" t="n">
-        <v>87.89418534840291</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>399.6098853710312</v>
+        <v>332.2092927442774</v>
       </c>
       <c r="N4" t="n">
-        <v>307.7838677081846</v>
+        <v>276.9411467385033</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27255,19 +27255,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>585.9280327798239</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>81.58717382803309</v>
       </c>
       <c r="L4" t="n">
-        <v>87.89418534840291</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>399.6098853710312</v>
+        <v>332.2092927442774</v>
       </c>
       <c r="N4" t="n">
-        <v>366.4605751452067</v>
+        <v>278.536004032611</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>105.9706131526085</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>400</v>
@@ -27385,19 +27385,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>5.14113987318342</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>102.4992359157</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27433,10 +27433,10 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>400</v>
@@ -27445,7 +27445,7 @@
         <v>400</v>
       </c>
       <c r="Y2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,19 +27534,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>169.8584983691369</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27594,13 +27594,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>194.4644002085328</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>225.1454739790328</v>
@@ -27613,16 +27613,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27634,7 +27634,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27676,10 +27676,10 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>397.350606037008</v>
+        <v>400</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>253.8775775763891</v>
       </c>
       <c r="Y5" t="n">
         <v>400</v>
@@ -27780,13 +27780,13 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>48.19697732171633</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -27819,25 +27819,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>80.12677360990125</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>173.0407669418726</v>
+        <v>400</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27865,10 +27865,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>217.8665548556918</v>
@@ -27913,7 +27913,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>400</v>
+        <v>336.6929326543902</v>
       </c>
       <c r="X8" t="n">
         <v>400</v>
@@ -28014,7 +28014,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>144.1344859240867</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28056,25 +28056,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>7.850344641982815</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28804,7 +28804,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>-1.125499693443999e-12</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -28974,7 +28974,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>3.637978807091713e-12</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791314577</v>
       </c>
       <c r="C38" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791314577</v>
       </c>
       <c r="D38" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791314577</v>
       </c>
       <c r="E38" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791314577</v>
       </c>
       <c r="F38" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791314577</v>
       </c>
       <c r="G38" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791314577</v>
       </c>
       <c r="H38" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791314577</v>
       </c>
       <c r="I38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791314577</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791314577</v>
       </c>
       <c r="T38" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791314577</v>
       </c>
       <c r="U38" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791314577</v>
       </c>
       <c r="V38" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791314577</v>
       </c>
       <c r="W38" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791314577</v>
       </c>
       <c r="X38" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791314577</v>
       </c>
       <c r="Y38" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791314577</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791314577</v>
       </c>
       <c r="C40" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791314577</v>
       </c>
       <c r="D40" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791314577</v>
       </c>
       <c r="E40" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791314577</v>
       </c>
       <c r="F40" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791314577</v>
       </c>
       <c r="G40" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791314577</v>
       </c>
       <c r="H40" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791314577</v>
       </c>
       <c r="I40" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791314577</v>
       </c>
       <c r="J40" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791314577</v>
       </c>
       <c r="K40" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791314577</v>
       </c>
       <c r="L40" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791314577</v>
       </c>
       <c r="M40" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791314577</v>
       </c>
       <c r="N40" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791314577</v>
       </c>
       <c r="O40" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791314577</v>
       </c>
       <c r="P40" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791314577</v>
       </c>
       <c r="Q40" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791314577</v>
       </c>
       <c r="R40" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791314577</v>
       </c>
       <c r="S40" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791314577</v>
       </c>
       <c r="T40" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791314577</v>
       </c>
       <c r="U40" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791314577</v>
       </c>
       <c r="V40" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791314577</v>
       </c>
       <c r="W40" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791314577</v>
       </c>
       <c r="X40" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791314577</v>
       </c>
       <c r="Y40" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791314577</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791314311</v>
       </c>
       <c r="C41" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791314311</v>
       </c>
       <c r="D41" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791314311</v>
       </c>
       <c r="E41" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791314311</v>
       </c>
       <c r="F41" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791314311</v>
       </c>
       <c r="G41" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791314311</v>
       </c>
       <c r="H41" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791314311</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791302636</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791314311</v>
       </c>
       <c r="T41" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791314311</v>
       </c>
       <c r="U41" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791314311</v>
       </c>
       <c r="V41" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791314311</v>
       </c>
       <c r="W41" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791314311</v>
       </c>
       <c r="X41" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791314311</v>
       </c>
       <c r="Y41" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791314311</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791314311</v>
       </c>
       <c r="C43" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791314311</v>
       </c>
       <c r="D43" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791314311</v>
       </c>
       <c r="E43" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791314311</v>
       </c>
       <c r="F43" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791314311</v>
       </c>
       <c r="G43" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791314311</v>
       </c>
       <c r="H43" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791314311</v>
       </c>
       <c r="I43" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791314311</v>
       </c>
       <c r="J43" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791314311</v>
       </c>
       <c r="K43" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791314311</v>
       </c>
       <c r="L43" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791314311</v>
       </c>
       <c r="M43" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791314311</v>
       </c>
       <c r="N43" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791314311</v>
       </c>
       <c r="O43" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791314311</v>
       </c>
       <c r="P43" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791314311</v>
       </c>
       <c r="Q43" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791314311</v>
       </c>
       <c r="R43" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791314311</v>
       </c>
       <c r="S43" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791314311</v>
       </c>
       <c r="T43" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791314311</v>
       </c>
       <c r="U43" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791314311</v>
       </c>
       <c r="V43" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791314311</v>
       </c>
       <c r="W43" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791314311</v>
       </c>
       <c r="X43" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791314311</v>
       </c>
       <c r="Y43" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791314311</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791314453</v>
       </c>
       <c r="C44" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791314453</v>
       </c>
       <c r="D44" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791314453</v>
       </c>
       <c r="E44" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791314453</v>
       </c>
       <c r="F44" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791314453</v>
       </c>
       <c r="G44" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791314453</v>
       </c>
       <c r="H44" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791314453</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791314453</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791314453</v>
       </c>
       <c r="T44" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791314453</v>
       </c>
       <c r="U44" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791314453</v>
       </c>
       <c r="V44" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791314453</v>
       </c>
       <c r="W44" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791314453</v>
       </c>
       <c r="X44" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791314453</v>
       </c>
       <c r="Y44" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791314453</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791314453</v>
       </c>
       <c r="C46" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791314453</v>
       </c>
       <c r="D46" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791314453</v>
       </c>
       <c r="E46" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791314453</v>
       </c>
       <c r="F46" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791314453</v>
       </c>
       <c r="G46" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791314453</v>
       </c>
       <c r="H46" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791314453</v>
       </c>
       <c r="I46" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791314453</v>
       </c>
       <c r="J46" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791314453</v>
       </c>
       <c r="K46" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791314453</v>
       </c>
       <c r="L46" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791314453</v>
       </c>
       <c r="M46" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791314453</v>
       </c>
       <c r="N46" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791314453</v>
       </c>
       <c r="O46" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791314453</v>
       </c>
       <c r="P46" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791314453</v>
       </c>
       <c r="Q46" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791314453</v>
       </c>
       <c r="R46" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791314453</v>
       </c>
       <c r="S46" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791314453</v>
       </c>
       <c r="T46" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791314453</v>
       </c>
       <c r="U46" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791314453</v>
       </c>
       <c r="V46" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791314453</v>
       </c>
       <c r="W46" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791314453</v>
       </c>
       <c r="X46" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791314453</v>
       </c>
       <c r="Y46" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791314453</v>
       </c>
     </row>
   </sheetData>
@@ -34696,10 +34696,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>585.9280327798238</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -34711,13 +34711,13 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>236.2898988798406</v>
+        <v>571.5773715962773</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697544</v>
@@ -34772,16 +34772,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J3" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>585.9280327798239</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>75.39120623605891</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34790,13 +34790,13 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>358.9284720888815</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132075</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>211.8274678729976</v>
       </c>
       <c r="L4" t="n">
-        <v>369.8475292559658</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P4" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821539</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,10 +34933,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>236.2898988798406</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -34948,13 +34948,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35015,10 +35015,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35033,7 +35033,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,25 +35091,25 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>150.1941962971706</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
         <v>169.8916917821539</v>
@@ -35173,7 +35173,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>512.1900428685071</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -35185,16 +35185,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>316.389926674475</v>
       </c>
       <c r="P8" t="n">
-        <v>393.1716474332623</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>512.1900428685071</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35246,16 +35246,16 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>512.1900428685072</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
-        <v>183.1401013920757</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35270,7 +35270,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>512.1900428685071</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,10 +35328,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
@@ -35346,10 +35346,10 @@
         <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>270.8718855679276</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,13 +35407,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>439.6511994473918</v>
+        <v>118.3827121078949</v>
       </c>
       <c r="K11" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>999.7244993521344</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -35422,16 +35422,16 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>911.7999282395383</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458551</v>
       </c>
       <c r="Q11" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>27.43449448359661</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,7 +35489,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158823</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35510,7 +35510,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
-        <v>118.3563415094341</v>
+        <v>118.3563415094343</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35580,7 +35580,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512941</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35656,7 +35656,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>143.4079146352447</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831377</v>
@@ -35720,7 +35720,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
         <v>327.836691885063</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
@@ -35893,7 +35893,7 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>143.4079146352447</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
@@ -35957,7 +35957,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
         <v>327.836691885063</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
@@ -36127,10 +36127,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
         <v>327.836691885063</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
@@ -36528,7 +36528,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O25" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P25" t="n">
         <v>351.017064616507</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37473,10 +37473,10 @@
         <v>464.1251183645586</v>
       </c>
       <c r="N37" t="n">
-        <v>446.7260637956006</v>
+        <v>446.7260637956008</v>
       </c>
       <c r="O37" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P37" t="n">
         <v>351.017064616507</v>
@@ -37543,7 +37543,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
@@ -37552,19 +37552,19 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>137.0929241373647</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P38" t="n">
-        <v>836.6766412458551</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q38" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
-        <v>81.93455261497274</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,7 +37622,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>103.689937777828</v>
+        <v>87.86684891821211</v>
       </c>
       <c r="K40" t="n">
-        <v>293.7695028348439</v>
+        <v>277.9464139752281</v>
       </c>
       <c r="L40" t="n">
-        <v>438.6699343467889</v>
+        <v>422.8468454871729</v>
       </c>
       <c r="M40" t="n">
-        <v>480.3608287033061</v>
+        <v>464.5377398436901</v>
       </c>
       <c r="N40" t="n">
-        <v>462.9617741343479</v>
+        <v>447.1386852747321</v>
       </c>
       <c r="O40" t="n">
-        <v>440.1440428900416</v>
+        <v>424.320954030426</v>
       </c>
       <c r="P40" t="n">
-        <v>367.2527749552542</v>
+        <v>351.4296860956383</v>
       </c>
       <c r="Q40" t="n">
-        <v>186.127402120901</v>
+        <v>170.3043132612852</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,7 +37780,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L41" t="n">
         <v>1085.919157831171</v>
@@ -37789,19 +37789,19 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>137.0929241373647</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P41" t="n">
-        <v>836.6766412458551</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>81.93455261497274</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,7 +37859,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>103.689937777828</v>
+        <v>87.86684891821211</v>
       </c>
       <c r="K43" t="n">
-        <v>293.7695028348439</v>
+        <v>277.946413975228</v>
       </c>
       <c r="L43" t="n">
-        <v>438.6699343467889</v>
+        <v>422.8468454871729</v>
       </c>
       <c r="M43" t="n">
-        <v>480.3608287033061</v>
+        <v>464.53773984369</v>
       </c>
       <c r="N43" t="n">
-        <v>462.9617741343479</v>
+        <v>447.1386852747321</v>
       </c>
       <c r="O43" t="n">
-        <v>440.1440428900416</v>
+        <v>424.3209540304258</v>
       </c>
       <c r="P43" t="n">
-        <v>367.2527749552542</v>
+        <v>351.4296860956383</v>
       </c>
       <c r="Q43" t="n">
-        <v>186.127402120901</v>
+        <v>170.3043132612852</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,19 +38014,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>144.4457920260412</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>1168.735187081365</v>
+        <v>137.0929241373647</v>
       </c>
       <c r="N44" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831377</v>
@@ -38038,7 +38038,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,7 +38096,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>103.689937777828</v>
+        <v>87.86684891821211</v>
       </c>
       <c r="K46" t="n">
-        <v>293.7695028348439</v>
+        <v>277.946413975228</v>
       </c>
       <c r="L46" t="n">
-        <v>438.6699343467889</v>
+        <v>422.8468454871729</v>
       </c>
       <c r="M46" t="n">
-        <v>480.3608287033061</v>
+        <v>464.5377398436902</v>
       </c>
       <c r="N46" t="n">
-        <v>462.9617741343479</v>
+        <v>447.1386852747319</v>
       </c>
       <c r="O46" t="n">
-        <v>440.1440428900416</v>
+        <v>424.3209540304258</v>
       </c>
       <c r="P46" t="n">
-        <v>367.2527749552542</v>
+        <v>351.4296860956383</v>
       </c>
       <c r="Q46" t="n">
-        <v>186.127402120901</v>
+        <v>170.3043132612852</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
